--- a/spliced/walkingToRunning/2023-03-24_10-03-17/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-03-17/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-11.13384056091309</v>
+        <v>-12.57026290893555</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.18883228302002</v>
+        <v>-8.004177093505859</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.074286460876465</v>
+        <v>-9.469242095947266</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1449330214943292</v>
+        <v>-0.4692756063703969</v>
       </c>
       <c r="G2" t="n">
-        <v>1.165589673178594</v>
+        <v>-2.234323765550341</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2754184092794358</v>
+        <v>0.2831644466944987</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-9.418439865112305</v>
+        <v>-11.83102798461914</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.676417350769045</v>
+        <v>-4.641905784606934</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.096508026123047</v>
+        <v>-9.06204319000244</v>
       </c>
       <c r="F3" t="n">
-        <v>3.144946085555223</v>
+        <v>0.5019868420703071</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.092144768578668</v>
+        <v>-2.09162780216762</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.065853960173481</v>
+        <v>-3.543231316975185</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.99904441833496</v>
+        <v>5.961018562316895</v>
       </c>
       <c r="D4" t="n">
-        <v>10.46211528778076</v>
+        <v>-11.27237701416016</v>
       </c>
       <c r="E4" t="n">
-        <v>5.739192962646484</v>
+        <v>6.515813827514648</v>
       </c>
       <c r="F4" t="n">
-        <v>2.411846300108097</v>
+        <v>2.689777469634955</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.998377110842354</v>
+        <v>-1.050217630181979</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.209750396864759</v>
+        <v>-0.7848469325474046</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.18538665771484</v>
+        <v>5.790210247039795</v>
       </c>
       <c r="D5" t="n">
-        <v>4.166534900665283</v>
+        <v>-16.61598014831543</v>
       </c>
       <c r="E5" t="n">
-        <v>8.056502342224121</v>
+        <v>5.962498664855957</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.357690974644261</v>
+        <v>-6.342504692077637</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8570090349231524</v>
+        <v>1.490384888648992</v>
       </c>
       <c r="H5" t="n">
-        <v>1.883484615598408</v>
+        <v>3.834645700454709</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-48.95797729492188</v>
+        <v>-44.78383636474609</v>
       </c>
       <c r="D6" t="n">
-        <v>21.78786277770996</v>
+        <v>-8.077349662780762</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.663942813873291</v>
+        <v>-27.36338424682617</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.860037258693148</v>
+        <v>-5.673670666558469</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.044664865732181</v>
+        <v>3.692834442002409</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.950326073169695</v>
+        <v>2.466138475707613</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-51.63021087646485</v>
+        <v>-42.66062545776367</v>
       </c>
       <c r="D7" t="n">
-        <v>21.43667411804199</v>
+        <v>-5.792407035827637</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2754793167114258</v>
+        <v>-30.21708297729492</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.702425773430137</v>
+        <v>3.314056737082347</v>
       </c>
       <c r="G7" t="n">
-        <v>6.032992362976163</v>
+        <v>6.166058949061821</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.296660602092725</v>
+        <v>0.5118652531078883</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.684616088867188</v>
+        <v>-9.564473152160645</v>
       </c>
       <c r="D8" t="n">
-        <v>-53.19293975830078</v>
+        <v>-21.24031639099121</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.34708404541016</v>
+        <v>-0.3582277297973633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3126779377369045</v>
+        <v>2.383262787546406</v>
       </c>
       <c r="G8" t="n">
-        <v>6.479121286528331</v>
+        <v>-4.818590433469862</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.585693658249726</v>
+        <v>0.4682122468948429</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.157036304473877</v>
+        <v>-10.97329330444336</v>
       </c>
       <c r="D9" t="n">
-        <v>-51.09187316894531</v>
+        <v>-18.38039779663086</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.45985221862793</v>
+        <v>0.1557941436767578</v>
       </c>
       <c r="F9" t="n">
-        <v>1.2245405282293</v>
+        <v>8.378727106537124</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.543206473759242</v>
+        <v>0.4666124773877008</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.580262565612791</v>
+        <v>-1.115668596540174</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.718238353729248</v>
+        <v>9.481355667114258</v>
       </c>
       <c r="D10" t="n">
-        <v>-36.44342803955078</v>
+        <v>-9.28108024597168</v>
       </c>
       <c r="E10" t="n">
-        <v>49.82834243774414</v>
+        <v>9.836421966552734</v>
       </c>
       <c r="F10" t="n">
-        <v>1.617181776251111</v>
+        <v>-0.3396976134606717</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.125919693495542</v>
+        <v>0.4775580519012043</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1643911872591244</v>
+        <v>1.77553138222013</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.645053386688232</v>
+        <v>10.69957828521728</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.68149566650391</v>
+        <v>-16.89757537841797</v>
       </c>
       <c r="E11" t="n">
-        <v>53.12262344360352</v>
+        <v>15.06509208679199</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.971336638927448</v>
+        <v>-5.64267150844849</v>
       </c>
       <c r="G11" t="n">
-        <v>1.658574864268297</v>
+        <v>3.583157830578955</v>
       </c>
       <c r="H11" t="n">
-        <v>5.434939258439194</v>
+        <v>3.719863629341134</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.72290420532227</v>
+        <v>-12.81566715240478</v>
       </c>
       <c r="D12" t="n">
-        <v>4.552091598510742</v>
+        <v>-8.839512825012207</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.990055084228516</v>
+        <v>-14.14643669128418</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.956257096358723</v>
+        <v>-1.766980731487296</v>
       </c>
       <c r="G12" t="n">
-        <v>7.306268368448494</v>
+        <v>16.75916714668267</v>
       </c>
       <c r="H12" t="n">
-        <v>4.086458946977384</v>
+        <v>-0.6191982626914752</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.21332740783692</v>
+        <v>-8.493080139160156</v>
       </c>
       <c r="D13" t="n">
-        <v>5.633610725402832</v>
+        <v>-3.757828950881958</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.995002746582031</v>
+        <v>-17.9176139831543</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8198845863342561</v>
+        <v>1.7845652954919</v>
       </c>
       <c r="G13" t="n">
-        <v>11.12434749603274</v>
+        <v>-3.40247355188642</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.147062941959883</v>
+        <v>4.17544686794281</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.608940124511719</v>
+        <v>-10.02292919158936</v>
       </c>
       <c r="D14" t="n">
-        <v>-37.16049957275391</v>
+        <v>-2.351483345031738</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.42632293701172</v>
+        <v>5.807761192321777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.935701674222974</v>
+        <v>8.421752619743332</v>
       </c>
       <c r="G14" t="n">
-        <v>2.147919416427764</v>
+        <v>-2.540225854941783</v>
       </c>
       <c r="H14" t="n">
-        <v>-10.2126766681671</v>
+        <v>-3.182726718698209</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.403503179550171</v>
+        <v>-12.75368976593018</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.6165771484375</v>
+        <v>-6.235836982727051</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.43898963928223</v>
+        <v>6.349725723266602</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2389882990292007</v>
+        <v>0.1595347711017858</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.616005550112014</v>
+        <v>-0.04787222487585119</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.156579332692241</v>
+        <v>1.229899188450423</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.55340099334717</v>
+        <v>-79.57471466064453</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.55029106140137</v>
+        <v>-37.79908752441406</v>
       </c>
       <c r="E16" t="n">
-        <v>23.63160514831543</v>
+        <v>-28.62195587158203</v>
       </c>
       <c r="F16" t="n">
-        <v>1.526702780382972</v>
+        <v>-3.870756162064419</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.326455611842019</v>
+        <v>2.866504958271982</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5443786570003977</v>
+        <v>3.126545447962625</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.95744132995606</v>
+        <v>-83.42860412597656</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.91344451904297</v>
+        <v>-34.91292572021484</v>
       </c>
       <c r="E17" t="n">
-        <v>27.42757415771484</v>
+        <v>-30.07511520385743</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8731935024261477</v>
+        <v>-3.578196597099306</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6492596694401325</v>
+        <v>14.92317203113009</v>
       </c>
       <c r="H17" t="n">
-        <v>2.44735940865108</v>
+        <v>-0.7331702096121586</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28.30527877807617</v>
+        <v>-3.41340184211731</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.764571666717529</v>
+        <v>-14.34111213684082</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.558635234832764</v>
+        <v>-5.178817749023438</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.709237475054613</v>
+        <v>0.1684449655669233</v>
       </c>
       <c r="G18" t="n">
-        <v>6.562261234010962</v>
+        <v>-0.0544045226915344</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4601501447814</v>
+        <v>0.7549586423805885</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.55707168579102</v>
+        <v>-5.549047946929932</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.7412428855896</v>
+        <v>-10.40872192382812</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.06655740737915</v>
+        <v>-4.603366851806641</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5285803828919924</v>
+        <v>9.868156909942579</v>
       </c>
       <c r="G19" t="n">
-        <v>10.79857470648639</v>
+        <v>-0.5477856159210392</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.973240453856401</v>
+        <v>-1.925824952125532</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13.90102863311768</v>
+        <v>13.1239423751831</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.42354011535644</v>
+        <v>-7.421818733215332</v>
       </c>
       <c r="E20" t="n">
-        <v>27.34511184692383</v>
+        <v>9.609323501586914</v>
       </c>
       <c r="F20" t="n">
-        <v>3.850714295251004</v>
+        <v>0.4101533753531434</v>
       </c>
       <c r="G20" t="n">
-        <v>12.26201233182615</v>
+        <v>-0.5063240064041949</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.182716676167052</v>
+        <v>1.204618217263898</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14.64404201507568</v>
+        <v>13.5955753326416</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.09142875671387</v>
+        <v>-13.69983100891113</v>
       </c>
       <c r="E21" t="n">
-        <v>27.1166820526123</v>
+        <v>12.63335609436035</v>
       </c>
       <c r="F21" t="n">
-        <v>2.128158664703387</v>
+        <v>-4.432378809792649</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.566282844543414</v>
+        <v>1.422139526265</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.598254120349853</v>
+        <v>3.637724219049721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.66697096824646</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.846949577331543</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-18.3593635559082</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1461163333484263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.942505402224434</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5480119875499323</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.207674980163574</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2672674059867859</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-20.82013320922852</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.381819248199463</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.363096782139367</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9756205422537669</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.444841146469116</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0402781963348388</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.625090599060059</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.626129477364711</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.49930441464691</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.115894814900024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.938364028930664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.24791407585144</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.832444190979004</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.154986371312843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.3653818828718969</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.201646787779655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-71.62106323242188</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.320010900497437</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-19.81892585754395</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.968483030796053</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.245044922828678</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.008097422122955</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-75.16300201416016</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.210659265518188</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-18.6042366027832</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.9093820844377891</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.189985391071852</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.7311917849949312</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-11.13384056091309</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-14.18883228302002</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-7.074286460876465</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1449330214943292</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.165589673178594</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.2754184092794358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.418439865112305</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.676417350769045</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-8.096508026123047</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.144946085555223</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-6.092144768578668</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.065853960173481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>17.99904441833496</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.46211528778076</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.739192962646484</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.411846300108097</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.998377110842354</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.209750396864759</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>21.18538665771484</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.166534900665283</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.056502342224121</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.357690974644261</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8570090349231524</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.883484615598408</v>
       </c>
     </row>
   </sheetData>
